--- a/Value/BlackRock.xlsx
+++ b/Value/BlackRock.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBC2319-717B-8647-95F7-419E45CAD529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E17651-D327-874F-A654-8378FD26D937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$Z$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$Z$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$Z$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -521,6 +513,9 @@
   </si>
   <si>
     <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -863,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -924,18 +919,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -970,12 +953,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -983,7 +960,6 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -996,11 +972,35 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2559,10 +2559,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC36" sqref="AC36"/>
+      <selection pane="bottomRight" activeCell="AD92" sqref="AD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4228,7 +4228,7 @@
         <v>212000000</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4306,6 +4306,9 @@
       </c>
       <c r="Z18" s="1">
         <v>151000000</v>
+      </c>
+      <c r="AF18" s="18" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4386,6 +4389,10 @@
       </c>
       <c r="Z19" s="10">
         <v>6837000000</v>
+      </c>
+      <c r="AF19" s="67">
+        <f>Z40-Z56-Z61</f>
+        <v>5557000000</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -9542,10 +9549,10 @@
       <c r="Z82" s="1">
         <v>416000000</v>
       </c>
-      <c r="AG82" s="32" t="s">
+      <c r="AG82" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="AH82" s="33"/>
+      <c r="AH82" s="60"/>
     </row>
     <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -9626,10 +9633,10 @@
       <c r="Z83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG83" s="34" t="s">
+      <c r="AG83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AH83" s="35"/>
+      <c r="AH83" s="62"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9971,10 +9978,10 @@
       <c r="Z87" s="10">
         <v>4956000000</v>
       </c>
-      <c r="AG87" s="36" t="s">
+      <c r="AG87" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AH87" s="37">
+      <c r="AH87" s="33">
         <f>AH84/(AH85+AH86)</f>
         <v>2.2734584450402145E-2</v>
       </c>
@@ -10268,10 +10275,10 @@
       <c r="Z90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG90" s="36" t="s">
+      <c r="AG90" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="AH90" s="37">
+      <c r="AH90" s="33">
         <f>AH88/AH89</f>
         <v>0.20604133545310016</v>
       </c>
@@ -10355,10 +10362,10 @@
       <c r="Z91" s="1">
         <v>-824000000</v>
       </c>
-      <c r="AG91" s="38" t="s">
+      <c r="AG91" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="AH91" s="39">
+      <c r="AH91" s="35">
         <f>AH87*(1-AH90)</f>
         <v>1.8050320309270004E-2</v>
       </c>
@@ -10442,10 +10449,10 @@
       <c r="Z92" s="1">
         <v>242000000</v>
       </c>
-      <c r="AG92" s="34" t="s">
+      <c r="AG92" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="AH92" s="35"/>
+      <c r="AH92" s="62"/>
     </row>
     <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -10529,7 +10536,7 @@
       <c r="AG93" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="AH93" s="40">
+      <c r="AH93" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10615,7 +10622,7 @@
       <c r="AG94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AH94" s="41">
+      <c r="AH94" s="37">
         <v>1.3</v>
       </c>
     </row>
@@ -10701,7 +10708,7 @@
       <c r="AG95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AH95" s="40">
+      <c r="AH95" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10784,10 +10791,10 @@
       <c r="Z96" s="1">
         <v>576000000</v>
       </c>
-      <c r="AG96" s="38" t="s">
+      <c r="AG96" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="AH96" s="39">
+      <c r="AH96" s="35">
         <f>(AH93)+((AH94)*(AH95-AH93))</f>
         <v>9.6915000000000001E-2</v>
       </c>
@@ -10871,10 +10878,10 @@
       <c r="Z97" s="1">
         <v>-2332000000</v>
       </c>
-      <c r="AG97" s="34" t="s">
+      <c r="AG97" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="AH97" s="35"/>
+      <c r="AH97" s="62"/>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -11042,10 +11049,10 @@
       <c r="Z99" s="1">
         <v>54000000</v>
       </c>
-      <c r="AG99" s="36" t="s">
+      <c r="AG99" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="AH99" s="37">
+      <c r="AH99" s="33">
         <f>AH98/AH102</f>
         <v>8.7047841306884477E-2</v>
       </c>
@@ -11132,7 +11139,7 @@
       <c r="AG100" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AH100" s="42">
+      <c r="AH100" s="38">
         <v>97800000000</v>
       </c>
     </row>
@@ -11215,10 +11222,10 @@
       <c r="Z101" s="1">
         <v>-291000000</v>
       </c>
-      <c r="AG101" s="36" t="s">
+      <c r="AG101" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="AH101" s="37">
+      <c r="AH101" s="33">
         <f>AH100/AH102</f>
         <v>0.91295215869311552</v>
       </c>
@@ -11302,10 +11309,10 @@
       <c r="Z102" s="10">
         <v>-1907000000</v>
       </c>
-      <c r="AG102" s="38" t="s">
+      <c r="AG102" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AH102" s="43">
+      <c r="AH102" s="39">
         <f>AH98+AH100</f>
         <v>107125000000</v>
       </c>
@@ -11389,10 +11396,10 @@
       <c r="Z103" s="1">
         <v>9340000000</v>
       </c>
-      <c r="AG103" s="34" t="s">
+      <c r="AG103" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="AH103" s="35"/>
+      <c r="AH103" s="62"/>
     </row>
     <row r="104" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -11588,10 +11595,10 @@
       <c r="AD105" s="15"/>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
-      <c r="AG105" s="66" t="s">
+      <c r="AG105" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="AH105" s="67"/>
+      <c r="AH105" s="64"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
@@ -11689,33 +11696,33 @@
       <c r="Z106" s="1">
         <v>4423000000</v>
       </c>
-      <c r="AA106" s="44">
+      <c r="AA106" s="40">
         <f>Z106*(1+$AH$106)</f>
         <v>4644949465.9571314</v>
       </c>
-      <c r="AB106" s="44">
+      <c r="AB106" s="40">
         <f t="shared" ref="AB106:AE106" si="25">AA106*(1+$AH$106)</f>
         <v>4878036523.0150213</v>
       </c>
-      <c r="AC106" s="44">
+      <c r="AC106" s="40">
         <f t="shared" si="25"/>
         <v>5122820063.870225</v>
       </c>
-      <c r="AD106" s="44">
+      <c r="AD106" s="40">
         <f t="shared" si="25"/>
         <v>5379887026.8750801</v>
       </c>
-      <c r="AE106" s="44">
+      <c r="AE106" s="40">
         <f t="shared" si="25"/>
         <v>5649853803.3898039</v>
       </c>
-      <c r="AF106" s="45" t="s">
+      <c r="AF106" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="AG106" s="46" t="s">
+      <c r="AG106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AH106" s="47">
+      <c r="AH106" s="43">
         <f>(SUM(AA4:AE4)/5)</f>
         <v>5.0180751968603013E-2</v>
       </c>
@@ -11747,151 +11754,151 @@
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
-      <c r="AA107" s="45"/>
-      <c r="AB107" s="45"/>
-      <c r="AC107" s="45"/>
-      <c r="AD107" s="45"/>
-      <c r="AE107" s="48">
+      <c r="AA107" s="41"/>
+      <c r="AB107" s="41"/>
+      <c r="AC107" s="41"/>
+      <c r="AD107" s="41"/>
+      <c r="AE107" s="44">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
         <v>89025367553.797745</v>
       </c>
-      <c r="AF107" s="49" t="s">
+      <c r="AF107" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="AG107" s="50" t="s">
+      <c r="AG107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AH107" s="51">
+      <c r="AH107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="48">
+      <c r="AA108" s="44">
         <f t="shared" ref="AA108:AC108" si="26">AA107+AA106</f>
         <v>4644949465.9571314</v>
       </c>
-      <c r="AB108" s="48">
+      <c r="AB108" s="44">
         <f t="shared" si="26"/>
         <v>4878036523.0150213</v>
       </c>
-      <c r="AC108" s="48">
+      <c r="AC108" s="44">
         <f t="shared" si="26"/>
         <v>5122820063.870225</v>
       </c>
-      <c r="AD108" s="48">
+      <c r="AD108" s="44">
         <f>AD107+AD106</f>
         <v>5379887026.8750801</v>
       </c>
-      <c r="AE108" s="48">
+      <c r="AE108" s="44">
         <f>AE107+AE106</f>
         <v>94675221357.187546</v>
       </c>
-      <c r="AF108" s="49" t="s">
+      <c r="AF108" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="AG108" s="52" t="s">
+      <c r="AG108" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AH108" s="53">
+      <c r="AH108" s="49">
         <f>AH104</f>
         <v>9.0049999877563056E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="54" t="s">
+      <c r="AA109" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="AB109" s="55"/>
+      <c r="AB109" s="66"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="56" t="s">
+      <c r="AA110" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="AB110" s="57">
+      <c r="AB110" s="51">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
         <v>77650643145.154129</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="56" t="s">
+      <c r="AA111" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="AB111" s="57">
+      <c r="AB111" s="51">
         <f>Z40</f>
         <v>14882000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="56" t="s">
+      <c r="AA112" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="AB112" s="57">
+      <c r="AB112" s="51">
         <f>AH98</f>
         <v>9325000000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="56" t="s">
+      <c r="AA113" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="AB113" s="57">
+      <c r="AB113" s="51">
         <f>AB110+AB111-AB112</f>
         <v>83207643145.154129</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="58" t="s">
+      <c r="AA114" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="AB114" s="59">
-        <f>Z34</f>
-        <v>152400000</v>
+      <c r="AB114" s="68">
+        <f>Z34*(1+(5*AF16))</f>
+        <v>140966235.27916574</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="60" t="s">
+      <c r="AA115" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="AB115" s="61">
+      <c r="AB115" s="54">
         <f>AB113/AB114</f>
-        <v>545.98191040127381</v>
+        <v>590.26647750343864</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="58" t="s">
+      <c r="AA116" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="AB116" s="62">
+      <c r="AB116" s="55">
         <v>651.28</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="63" t="s">
+      <c r="AA117" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AB117" s="64">
+      <c r="AB117" s="57">
         <f>AB115/AB116-1</f>
-        <v>-0.1616786782930939</v>
+        <v>-9.3682475274169841E-2</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="63" t="s">
+      <c r="AA118" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AB118" s="65" t="str">
+      <c r="AB118" s="58" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="AA109:AB109"/>
     <mergeCell ref="AG82:AH82"/>
     <mergeCell ref="AG92:AH92"/>
     <mergeCell ref="AG97:AH97"/>
     <mergeCell ref="AG103:AH103"/>
     <mergeCell ref="AG105:AH105"/>
     <mergeCell ref="AG83:AH83"/>
-    <mergeCell ref="AA109:AB109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/BLK" display="ROIC.AI | BLK" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
